--- a/Xports/UD_French-ParisStories/Verb-no-nothing.xlsx
+++ b/Xports/UD_French-ParisStories/Verb-no-nothing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="508">
   <si>
     <t>sent_id</t>
   </si>
@@ -1234,45 +1234,45 @@
     <t>21</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
@@ -1402,6 +1402,9 @@
     <t>22</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>27</t>
   </si>
   <si>
@@ -1433,6 +1436,9 @@
   </si>
   <si>
     <t>reparandum</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
   <si>
     <t>aux:tense</t>
@@ -1977,13 +1983,13 @@
         <v>395</v>
       </c>
       <c r="L2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M2" t="s">
         <v>447</v>
       </c>
       <c r="N2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O2">
         <v>-1</v>
@@ -2024,7 +2030,7 @@
         <v>398</v>
       </c>
       <c r="L3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M3" t="s">
         <v>447</v>
@@ -2068,16 +2074,16 @@
         <v>447</v>
       </c>
       <c r="K4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M4" t="s">
         <v>447</v>
       </c>
       <c r="N4" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O4">
         <v>-1</v>
@@ -2118,13 +2124,13 @@
         <v>398</v>
       </c>
       <c r="L5" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M5" t="s">
         <v>447</v>
       </c>
       <c r="N5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O5">
         <v>-1</v>
@@ -2165,13 +2171,13 @@
         <v>394</v>
       </c>
       <c r="L6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M6" t="s">
         <v>447</v>
       </c>
       <c r="N6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -2209,16 +2215,16 @@
         <v>447</v>
       </c>
       <c r="K7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M7" t="s">
         <v>447</v>
       </c>
       <c r="N7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O7">
         <v>-1</v>
@@ -2259,13 +2265,13 @@
         <v>396</v>
       </c>
       <c r="L8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M8" t="s">
         <v>447</v>
       </c>
       <c r="N8" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -2306,13 +2312,13 @@
         <v>419</v>
       </c>
       <c r="L9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M9" t="s">
         <v>447</v>
       </c>
       <c r="N9" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -2353,13 +2359,13 @@
         <v>401</v>
       </c>
       <c r="L10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M10" t="s">
         <v>447</v>
       </c>
       <c r="N10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -2400,13 +2406,13 @@
         <v>399</v>
       </c>
       <c r="L11" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M11" t="s">
         <v>447</v>
       </c>
       <c r="N11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -2447,13 +2453,13 @@
         <v>404</v>
       </c>
       <c r="L12" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M12" t="s">
         <v>447</v>
       </c>
       <c r="N12" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O12">
         <v>-1</v>
@@ -2494,13 +2500,13 @@
         <v>392</v>
       </c>
       <c r="L13" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M13" t="s">
         <v>447</v>
       </c>
       <c r="N13" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -2541,7 +2547,7 @@
         <v>392</v>
       </c>
       <c r="L14" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M14" t="s">
         <v>447</v>
@@ -2588,13 +2594,13 @@
         <v>403</v>
       </c>
       <c r="L15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M15" t="s">
         <v>447</v>
       </c>
       <c r="N15" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O15">
         <v>-1</v>
@@ -2632,10 +2638,10 @@
         <v>449</v>
       </c>
       <c r="K16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L16" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M16" t="s">
         <v>447</v>
@@ -2682,13 +2688,13 @@
         <v>393</v>
       </c>
       <c r="L17" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M17" t="s">
         <v>447</v>
       </c>
       <c r="N17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O17">
         <v>-1</v>
@@ -2729,13 +2735,13 @@
         <v>397</v>
       </c>
       <c r="L18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M18" t="s">
         <v>447</v>
       </c>
       <c r="N18" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -2776,13 +2782,13 @@
         <v>402</v>
       </c>
       <c r="L19" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M19" t="s">
         <v>447</v>
       </c>
       <c r="N19" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O19">
         <v>-1</v>
@@ -2823,13 +2829,13 @@
         <v>397</v>
       </c>
       <c r="L20" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M20" t="s">
         <v>447</v>
       </c>
       <c r="N20" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O20">
         <v>-1</v>
@@ -2870,7 +2876,7 @@
         <v>461</v>
       </c>
       <c r="L21" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M21" t="s">
         <v>447</v>
@@ -2893,7 +2899,7 @@
         <v>320</v>
       </c>
       <c r="E22" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="F22" t="s">
         <v>260</v>
@@ -2911,16 +2917,16 @@
         <v>449</v>
       </c>
       <c r="K22" t="s">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="L22" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M22" t="s">
         <v>447</v>
       </c>
       <c r="N22" t="s">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="O22">
         <v>-1</v>
@@ -2940,7 +2946,7 @@
         <v>321</v>
       </c>
       <c r="E23" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F23" t="s">
         <v>253</v>
@@ -2958,16 +2964,16 @@
         <v>451</v>
       </c>
       <c r="K23" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M23" t="s">
         <v>447</v>
       </c>
       <c r="N23" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -3008,13 +3014,13 @@
         <v>419</v>
       </c>
       <c r="L24" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M24" t="s">
         <v>447</v>
       </c>
       <c r="N24" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -3034,7 +3040,7 @@
         <v>304</v>
       </c>
       <c r="E25" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F25" t="s">
         <v>261</v>
@@ -3055,13 +3061,13 @@
         <v>461</v>
       </c>
       <c r="L25" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M25" t="s">
         <v>447</v>
       </c>
       <c r="N25" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O25">
         <v>-1</v>
@@ -3102,13 +3108,13 @@
         <v>400</v>
       </c>
       <c r="L26" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M26" t="s">
         <v>447</v>
       </c>
       <c r="N26" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O26">
         <v>1</v>
@@ -3149,13 +3155,13 @@
         <v>394</v>
       </c>
       <c r="L27" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M27" t="s">
         <v>447</v>
       </c>
       <c r="N27" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O27">
         <v>-1</v>
@@ -3196,13 +3202,13 @@
         <v>393</v>
       </c>
       <c r="L28" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M28" t="s">
         <v>447</v>
       </c>
       <c r="N28" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O28">
         <v>-1</v>
@@ -3243,13 +3249,13 @@
         <v>403</v>
       </c>
       <c r="L29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M29" t="s">
         <v>447</v>
       </c>
       <c r="N29" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O29">
         <v>-1</v>
@@ -3269,7 +3275,7 @@
         <v>304</v>
       </c>
       <c r="E30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F30" t="s">
         <v>262</v>
@@ -3290,13 +3296,13 @@
         <v>461</v>
       </c>
       <c r="L30" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M30" t="s">
         <v>447</v>
       </c>
       <c r="N30" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O30">
         <v>-1</v>
@@ -3334,16 +3340,16 @@
         <v>447</v>
       </c>
       <c r="K31" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L31" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M31" t="s">
         <v>447</v>
       </c>
       <c r="N31" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O31">
         <v>-1</v>
@@ -3384,13 +3390,13 @@
         <v>393</v>
       </c>
       <c r="L32" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M32" t="s">
         <v>447</v>
       </c>
       <c r="N32" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O32">
         <v>-1</v>
@@ -3410,7 +3416,7 @@
         <v>327</v>
       </c>
       <c r="E33" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F33" t="s">
         <v>265</v>
@@ -3431,13 +3437,13 @@
         <v>421</v>
       </c>
       <c r="L33" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M33" t="s">
         <v>447</v>
       </c>
       <c r="N33" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O33">
         <v>2</v>
@@ -3478,13 +3484,13 @@
         <v>395</v>
       </c>
       <c r="L34" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M34" t="s">
         <v>447</v>
       </c>
       <c r="N34" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O34">
         <v>-1</v>
@@ -3522,16 +3528,16 @@
         <v>450</v>
       </c>
       <c r="K35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L35" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M35" t="s">
         <v>447</v>
       </c>
       <c r="N35" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O35">
         <v>-1</v>
@@ -3569,16 +3575,16 @@
         <v>450</v>
       </c>
       <c r="K36" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M36" t="s">
         <v>447</v>
       </c>
       <c r="N36" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O36">
         <v>-1</v>
@@ -3598,7 +3604,7 @@
         <v>328</v>
       </c>
       <c r="E37" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F37" t="s">
         <v>268</v>
@@ -3619,13 +3625,13 @@
         <v>421</v>
       </c>
       <c r="L37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M37" t="s">
         <v>447</v>
       </c>
       <c r="N37" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="O37">
         <v>-1</v>
@@ -3666,13 +3672,13 @@
         <v>393</v>
       </c>
       <c r="L38" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M38" t="s">
         <v>447</v>
       </c>
       <c r="N38" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O38">
         <v>2</v>
@@ -3713,13 +3719,13 @@
         <v>402</v>
       </c>
       <c r="L39" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M39" t="s">
         <v>447</v>
       </c>
       <c r="N39" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -3760,13 +3766,13 @@
         <v>419</v>
       </c>
       <c r="L40" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M40" t="s">
         <v>447</v>
       </c>
       <c r="N40" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -3786,7 +3792,7 @@
         <v>332</v>
       </c>
       <c r="E41" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F41" t="s">
         <v>268</v>
@@ -3804,16 +3810,16 @@
         <v>453</v>
       </c>
       <c r="K41" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M41" t="s">
         <v>447</v>
       </c>
       <c r="N41" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O41">
         <v>-1</v>
@@ -3854,13 +3860,13 @@
         <v>399</v>
       </c>
       <c r="L42" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M42" t="s">
         <v>447</v>
       </c>
       <c r="N42" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O42">
         <v>-1</v>
@@ -3901,13 +3907,13 @@
         <v>402</v>
       </c>
       <c r="L43" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M43" t="s">
         <v>447</v>
       </c>
       <c r="N43" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O43">
         <v>-1</v>
@@ -3948,13 +3954,13 @@
         <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M44" t="s">
         <v>447</v>
       </c>
       <c r="N44" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O44">
         <v>-1</v>
@@ -3992,16 +3998,16 @@
         <v>450</v>
       </c>
       <c r="K45" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M45" t="s">
         <v>447</v>
       </c>
       <c r="N45" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O45">
         <v>-1</v>
@@ -4042,13 +4048,13 @@
         <v>398</v>
       </c>
       <c r="L46" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M46" t="s">
         <v>447</v>
       </c>
       <c r="N46" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O46">
         <v>-1</v>
@@ -4068,7 +4074,7 @@
         <v>328</v>
       </c>
       <c r="E47" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F47" t="s">
         <v>268</v>
@@ -4086,16 +4092,16 @@
         <v>451</v>
       </c>
       <c r="K47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L47" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M47" t="s">
         <v>447</v>
       </c>
       <c r="N47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O47">
         <v>-1</v>
@@ -4136,13 +4142,13 @@
         <v>393</v>
       </c>
       <c r="L48" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M48" t="s">
         <v>447</v>
       </c>
       <c r="N48" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -4162,7 +4168,7 @@
         <v>336</v>
       </c>
       <c r="E49" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F49" t="s">
         <v>276</v>
@@ -4183,13 +4189,13 @@
         <v>461</v>
       </c>
       <c r="L49" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M49" t="s">
         <v>447</v>
       </c>
       <c r="N49" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O49">
         <v>1</v>
@@ -4230,13 +4236,13 @@
         <v>393</v>
       </c>
       <c r="L50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M50" t="s">
         <v>447</v>
       </c>
       <c r="N50" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O50">
         <v>-1</v>
@@ -4277,13 +4283,13 @@
         <v>402</v>
       </c>
       <c r="L51" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M51" t="s">
         <v>447</v>
       </c>
       <c r="N51" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -4324,13 +4330,13 @@
         <v>396</v>
       </c>
       <c r="L52" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M52" t="s">
         <v>447</v>
       </c>
       <c r="N52" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O52">
         <v>-1</v>
@@ -4371,13 +4377,13 @@
         <v>392</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M53" t="s">
         <v>447</v>
       </c>
       <c r="N53" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O53">
         <v>-1</v>
@@ -4418,7 +4424,7 @@
         <v>398</v>
       </c>
       <c r="L54" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M54" t="s">
         <v>447</v>
@@ -4465,7 +4471,7 @@
         <v>398</v>
       </c>
       <c r="L55" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M55" t="s">
         <v>447</v>
@@ -4509,16 +4515,16 @@
         <v>450</v>
       </c>
       <c r="K56" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L56" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M56" t="s">
         <v>447</v>
       </c>
       <c r="N56" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O56">
         <v>-1</v>
@@ -4559,13 +4565,13 @@
         <v>398</v>
       </c>
       <c r="L57" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M57" t="s">
         <v>447</v>
       </c>
       <c r="N57" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O57">
         <v>-1</v>
@@ -4606,13 +4612,13 @@
         <v>403</v>
       </c>
       <c r="L58" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M58" t="s">
         <v>447</v>
       </c>
       <c r="N58" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O58">
         <v>-1</v>
@@ -4632,7 +4638,7 @@
         <v>304</v>
       </c>
       <c r="E59" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F59" t="s">
         <v>258</v>
@@ -4650,16 +4656,16 @@
         <v>450</v>
       </c>
       <c r="K59" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M59" t="s">
         <v>447</v>
       </c>
       <c r="N59" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O59">
         <v>-1</v>
@@ -4679,7 +4685,7 @@
         <v>343</v>
       </c>
       <c r="E60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F60" t="s">
         <v>275</v>
@@ -4700,13 +4706,13 @@
         <v>461</v>
       </c>
       <c r="L60" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M60" t="s">
         <v>447</v>
       </c>
       <c r="N60" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -4747,13 +4753,13 @@
         <v>419</v>
       </c>
       <c r="L61" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M61" t="s">
         <v>447</v>
       </c>
       <c r="N61" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O61">
         <v>-1</v>
@@ -4791,16 +4797,16 @@
         <v>450</v>
       </c>
       <c r="K62" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L62" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M62" t="s">
         <v>447</v>
       </c>
       <c r="N62" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="O62">
         <v>-1</v>
@@ -4841,13 +4847,13 @@
         <v>402</v>
       </c>
       <c r="L63" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M63" t="s">
         <v>447</v>
       </c>
       <c r="N63" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O63">
         <v>-1</v>
@@ -4885,16 +4891,16 @@
         <v>451</v>
       </c>
       <c r="K64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M64" t="s">
         <v>447</v>
       </c>
       <c r="N64" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="O64">
         <v>-1</v>
@@ -4935,13 +4941,13 @@
         <v>404</v>
       </c>
       <c r="L65" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M65" t="s">
         <v>447</v>
       </c>
       <c r="N65" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="O65">
         <v>-1</v>
@@ -4982,13 +4988,13 @@
         <v>394</v>
       </c>
       <c r="L66" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M66" t="s">
         <v>447</v>
       </c>
       <c r="N66" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="O66">
         <v>-1</v>
@@ -5029,7 +5035,7 @@
         <v>396</v>
       </c>
       <c r="L67" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M67" t="s">
         <v>447</v>
@@ -5073,16 +5079,16 @@
         <v>450</v>
       </c>
       <c r="K68" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L68" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M68" t="s">
         <v>447</v>
       </c>
       <c r="N68" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O68">
         <v>-1</v>
@@ -5123,7 +5129,7 @@
         <v>393</v>
       </c>
       <c r="L69" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M69" t="s">
         <v>447</v>
@@ -5170,7 +5176,7 @@
         <v>401</v>
       </c>
       <c r="L70" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M70" t="s">
         <v>447</v>
@@ -5217,13 +5223,13 @@
         <v>419</v>
       </c>
       <c r="L71" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M71" t="s">
         <v>447</v>
       </c>
       <c r="N71" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O71">
         <v>-1</v>
@@ -5261,16 +5267,16 @@
         <v>448</v>
       </c>
       <c r="K72" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M72" t="s">
         <v>447</v>
       </c>
       <c r="N72" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O72">
         <v>-1</v>
@@ -5311,13 +5317,13 @@
         <v>404</v>
       </c>
       <c r="L73" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M73" t="s">
         <v>447</v>
       </c>
       <c r="N73" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -5358,13 +5364,13 @@
         <v>404</v>
       </c>
       <c r="L74" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M74" t="s">
         <v>447</v>
       </c>
       <c r="N74" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -5384,7 +5390,7 @@
         <v>356</v>
       </c>
       <c r="E75" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F75" t="s">
         <v>285</v>
@@ -5402,16 +5408,16 @@
         <v>450</v>
       </c>
       <c r="K75" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L75" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M75" t="s">
         <v>447</v>
       </c>
       <c r="N75" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="O75">
         <v>2</v>
@@ -5431,7 +5437,7 @@
         <v>304</v>
       </c>
       <c r="E76" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F76" t="s">
         <v>286</v>
@@ -5449,16 +5455,16 @@
         <v>448</v>
       </c>
       <c r="K76" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L76" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M76" t="s">
         <v>447</v>
       </c>
       <c r="N76" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O76">
         <v>-1</v>
@@ -5499,13 +5505,13 @@
         <v>396</v>
       </c>
       <c r="L77" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M77" t="s">
         <v>447</v>
       </c>
       <c r="N77" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O77">
         <v>-1</v>
@@ -5546,13 +5552,13 @@
         <v>396</v>
       </c>
       <c r="L78" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M78" t="s">
         <v>447</v>
       </c>
       <c r="N78" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O78">
         <v>-1</v>
@@ -5593,13 +5599,13 @@
         <v>398</v>
       </c>
       <c r="L79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M79" t="s">
         <v>447</v>
       </c>
       <c r="N79" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O79">
         <v>3</v>
@@ -5619,7 +5625,7 @@
         <v>322</v>
       </c>
       <c r="E80" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F80" t="s">
         <v>275</v>
@@ -5637,16 +5643,16 @@
         <v>456</v>
       </c>
       <c r="K80" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L80" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M80" t="s">
         <v>447</v>
       </c>
       <c r="N80" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O80">
         <v>-1</v>
@@ -5666,7 +5672,7 @@
         <v>360</v>
       </c>
       <c r="E81" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F81" t="s">
         <v>287</v>
@@ -5684,10 +5690,10 @@
         <v>457</v>
       </c>
       <c r="K81" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="L81" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M81" t="s">
         <v>447</v>
@@ -5734,7 +5740,7 @@
         <v>404</v>
       </c>
       <c r="L82" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M82" t="s">
         <v>447</v>
@@ -5778,16 +5784,16 @@
         <v>450</v>
       </c>
       <c r="K83" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L83" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M83" t="s">
         <v>447</v>
       </c>
       <c r="N83" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O83">
         <v>-1</v>
@@ -5807,7 +5813,7 @@
         <v>363</v>
       </c>
       <c r="E84" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F84" t="s">
         <v>249</v>
@@ -5828,13 +5834,13 @@
         <v>395</v>
       </c>
       <c r="L84" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M84" t="s">
         <v>447</v>
       </c>
       <c r="N84" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O84">
         <v>-1</v>
@@ -5875,13 +5881,13 @@
         <v>396</v>
       </c>
       <c r="L85" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M85" t="s">
         <v>447</v>
       </c>
       <c r="N85" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="O85">
         <v>-1</v>
@@ -5922,13 +5928,13 @@
         <v>393</v>
       </c>
       <c r="L86" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M86" t="s">
         <v>447</v>
       </c>
       <c r="N86" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="O86">
         <v>-1</v>
@@ -5966,16 +5972,16 @@
         <v>450</v>
       </c>
       <c r="K87" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L87" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M87" t="s">
         <v>447</v>
       </c>
       <c r="N87" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="O87">
         <v>-1</v>
@@ -6016,13 +6022,13 @@
         <v>398</v>
       </c>
       <c r="L88" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M88" t="s">
         <v>447</v>
       </c>
       <c r="N88" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="O88">
         <v>-1</v>
@@ -6063,13 +6069,13 @@
         <v>402</v>
       </c>
       <c r="L89" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M89" t="s">
         <v>447</v>
       </c>
       <c r="N89" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O89">
         <v>2</v>
@@ -6110,13 +6116,13 @@
         <v>395</v>
       </c>
       <c r="L90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M90" t="s">
         <v>447</v>
       </c>
       <c r="N90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="O90">
         <v>-1</v>
@@ -6157,13 +6163,13 @@
         <v>395</v>
       </c>
       <c r="L91" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M91" t="s">
         <v>447</v>
       </c>
       <c r="N91" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="O91">
         <v>-1</v>
@@ -6183,7 +6189,7 @@
         <v>369</v>
       </c>
       <c r="E92" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F92" t="s">
         <v>257</v>
@@ -6201,16 +6207,16 @@
         <v>451</v>
       </c>
       <c r="K92" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="L92" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M92" t="s">
         <v>447</v>
       </c>
       <c r="N92" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O92">
         <v>-1</v>
@@ -6251,13 +6257,13 @@
         <v>402</v>
       </c>
       <c r="L93" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M93" t="s">
         <v>447</v>
       </c>
       <c r="N93" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O93">
         <v>-1</v>
@@ -6295,16 +6301,16 @@
         <v>459</v>
       </c>
       <c r="K94" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L94" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M94" t="s">
         <v>447</v>
       </c>
       <c r="N94" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="O94">
         <v>-1</v>
@@ -6324,7 +6330,7 @@
         <v>370</v>
       </c>
       <c r="E95" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F95" t="s">
         <v>249</v>
@@ -6345,13 +6351,13 @@
         <v>395</v>
       </c>
       <c r="L95" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M95" t="s">
         <v>447</v>
       </c>
       <c r="N95" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O95">
         <v>-1</v>
@@ -6371,7 +6377,7 @@
         <v>304</v>
       </c>
       <c r="E96" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F96" t="s">
         <v>249</v>
@@ -6392,13 +6398,13 @@
         <v>398</v>
       </c>
       <c r="L96" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M96" t="s">
         <v>447</v>
       </c>
       <c r="N96" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O96">
         <v>-1</v>
@@ -6418,7 +6424,7 @@
         <v>371</v>
       </c>
       <c r="E97" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F97" t="s">
         <v>249</v>
@@ -6436,16 +6442,16 @@
         <v>447</v>
       </c>
       <c r="K97" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L97" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M97" t="s">
         <v>447</v>
       </c>
       <c r="N97" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O97">
         <v>-1</v>
@@ -6465,7 +6471,7 @@
         <v>372</v>
       </c>
       <c r="E98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F98" t="s">
         <v>249</v>
@@ -6486,13 +6492,13 @@
         <v>392</v>
       </c>
       <c r="L98" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M98" t="s">
         <v>447</v>
       </c>
       <c r="N98" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O98">
         <v>-1</v>
@@ -6512,7 +6518,7 @@
         <v>373</v>
       </c>
       <c r="E99" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F99" t="s">
         <v>249</v>
@@ -6533,13 +6539,13 @@
         <v>392</v>
       </c>
       <c r="L99" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M99" t="s">
         <v>447</v>
       </c>
       <c r="N99" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O99">
         <v>-1</v>
@@ -6559,7 +6565,7 @@
         <v>374</v>
       </c>
       <c r="E100" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F100" t="s">
         <v>249</v>
@@ -6577,16 +6583,16 @@
         <v>447</v>
       </c>
       <c r="K100" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L100" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M100" t="s">
         <v>447</v>
       </c>
       <c r="N100" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O100">
         <v>-1</v>
@@ -6606,7 +6612,7 @@
         <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F101" t="s">
         <v>249</v>
@@ -6627,13 +6633,13 @@
         <v>397</v>
       </c>
       <c r="L101" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M101" t="s">
         <v>447</v>
       </c>
       <c r="N101" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O101">
         <v>-1</v>
@@ -6653,7 +6659,7 @@
         <v>375</v>
       </c>
       <c r="E102" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="F102" t="s">
         <v>249</v>
@@ -6674,13 +6680,13 @@
         <v>397</v>
       </c>
       <c r="L102" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M102" t="s">
         <v>447</v>
       </c>
       <c r="N102" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O102">
         <v>-1</v>
@@ -6697,7 +6703,7 @@
         <v>376</v>
       </c>
       <c r="E103" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F103" t="s">
         <v>249</v>
@@ -6718,13 +6724,13 @@
         <v>398</v>
       </c>
       <c r="L103" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M103" t="s">
         <v>447</v>
       </c>
       <c r="N103" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O103">
         <v>-1</v>
@@ -6741,7 +6747,7 @@
         <v>377</v>
       </c>
       <c r="E104" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="F104" t="s">
         <v>249</v>
@@ -6762,13 +6768,13 @@
         <v>393</v>
       </c>
       <c r="L104" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M104" t="s">
         <v>447</v>
       </c>
       <c r="N104" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="O104">
         <v>-1</v>
@@ -6809,13 +6815,13 @@
         <v>395</v>
       </c>
       <c r="L105" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M105" t="s">
         <v>447</v>
       </c>
       <c r="N105" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="O105">
         <v>-1</v>
@@ -6853,16 +6859,16 @@
         <v>452</v>
       </c>
       <c r="K106" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L106" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M106" t="s">
         <v>447</v>
       </c>
       <c r="N106" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O106">
         <v>1</v>
@@ -6900,16 +6906,16 @@
         <v>452</v>
       </c>
       <c r="K107" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L107" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M107" t="s">
         <v>447</v>
       </c>
       <c r="N107" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O107">
         <v>1</v>
@@ -6947,16 +6953,16 @@
         <v>452</v>
       </c>
       <c r="K108" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L108" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M108" t="s">
         <v>447</v>
       </c>
       <c r="N108" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -6994,16 +7000,16 @@
         <v>452</v>
       </c>
       <c r="K109" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L109" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M109" t="s">
         <v>447</v>
       </c>
       <c r="N109" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O109">
         <v>1</v>
@@ -7044,13 +7050,13 @@
         <v>395</v>
       </c>
       <c r="L110" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M110" t="s">
         <v>447</v>
       </c>
       <c r="N110" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O110">
         <v>-1</v>
@@ -7091,13 +7097,13 @@
         <v>398</v>
       </c>
       <c r="L111" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M111" t="s">
         <v>447</v>
       </c>
       <c r="N111" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O111">
         <v>-1</v>
@@ -7138,13 +7144,13 @@
         <v>401</v>
       </c>
       <c r="L112" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M112" t="s">
         <v>447</v>
       </c>
       <c r="N112" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O112">
         <v>-1</v>
@@ -7164,7 +7170,7 @@
         <v>384</v>
       </c>
       <c r="E113" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F113" t="s">
         <v>300</v>
@@ -7182,16 +7188,16 @@
         <v>451</v>
       </c>
       <c r="K113" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L113" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M113" t="s">
         <v>447</v>
       </c>
       <c r="N113" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O113">
         <v>1</v>
@@ -7232,13 +7238,13 @@
         <v>397</v>
       </c>
       <c r="L114" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M114" t="s">
         <v>447</v>
       </c>
       <c r="N114" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -7258,7 +7264,7 @@
         <v>386</v>
       </c>
       <c r="E115" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F115" t="s">
         <v>275</v>
@@ -7276,16 +7282,16 @@
         <v>454</v>
       </c>
       <c r="K115" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L115" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M115" t="s">
         <v>447</v>
       </c>
       <c r="N115" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="O115">
         <v>-1</v>
@@ -7323,10 +7329,10 @@
         <v>449</v>
       </c>
       <c r="K116" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L116" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M116" t="s">
         <v>447</v>
@@ -7370,16 +7376,16 @@
         <v>450</v>
       </c>
       <c r="K117" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L117" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M117" t="s">
         <v>447</v>
       </c>
       <c r="N117" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="O117">
         <v>1</v>
@@ -7399,7 +7405,7 @@
         <v>304</v>
       </c>
       <c r="E118" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F118" t="s">
         <v>258</v>
@@ -7417,16 +7423,16 @@
         <v>450</v>
       </c>
       <c r="K118" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M118" t="s">
         <v>447</v>
       </c>
       <c r="N118" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="O118">
         <v>-1</v>
@@ -7467,13 +7473,13 @@
         <v>394</v>
       </c>
       <c r="L119" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M119" t="s">
         <v>447</v>
       </c>
       <c r="N119" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="O119">
         <v>-1</v>
@@ -7511,16 +7517,16 @@
         <v>450</v>
       </c>
       <c r="K120" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="L120" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M120" t="s">
         <v>447</v>
       </c>
       <c r="N120" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="O120">
         <v>-1</v>
@@ -7561,13 +7567,13 @@
         <v>419</v>
       </c>
       <c r="L121" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M121" t="s">
         <v>447</v>
       </c>
       <c r="N121" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="O121">
         <v>3</v>
@@ -7608,13 +7614,13 @@
         <v>401</v>
       </c>
       <c r="L122" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M122" t="s">
         <v>447</v>
       </c>
       <c r="N122" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="O122">
         <v>-1</v>
@@ -7655,13 +7661,13 @@
         <v>392</v>
       </c>
       <c r="L123" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M123" t="s">
         <v>447</v>
       </c>
       <c r="N123" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="O123">
         <v>-1</v>
@@ -7702,13 +7708,13 @@
         <v>400</v>
       </c>
       <c r="L124" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M124" t="s">
         <v>447</v>
       </c>
       <c r="N124" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="O124">
         <v>-1</v>
@@ -7749,13 +7755,13 @@
         <v>402</v>
       </c>
       <c r="L125" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M125" t="s">
         <v>447</v>
       </c>
       <c r="N125" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O125">
         <v>-1</v>
